--- a/VALOR/Exportación por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
+++ b/VALOR/Exportación por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Exportaciones\FOB\2020\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D249D2CD-4DD8-49DD-9F2E-F01171CC0D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8C292E-865F-4A9C-A22D-CEF0E74BCC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="554" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="554" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="puerto_monto" sheetId="5" r:id="rId1"/>
@@ -328,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -369,12 +369,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -388,6 +484,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,18 +497,343 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -422,6 +844,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C1B4690-F392-49EA-B656-7845E7936CC1}" name="exp_salida_valor_2020" displayName="exp_salida_valor_2020" ref="A1:J56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:J56" xr:uid="{7A094E5F-82F8-4F36-A6EF-F71447B3CD5A}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{31A9BF21-4E66-4E83-B662-BD3806F92937}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9F8F6718-12CD-4496-975D-874555B767FA}" name="Enero - 2020" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{1D47C732-87B0-4120-B769-7F5C26204D4A}" name="Febrero - 2020" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A743DC19-EA56-4D04-AFF0-F28CF8BE3DFE}" name="Marzo - 2020" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4AFF5666-80BB-4E1C-8FC5-F73CABF9A633}" name="Abril - 2020" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{DB0A3F01-A060-4507-89C0-C7B66A328B64}" name="Mayo - 2020" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A723A1D1-6820-4214-8175-68474A458A9F}" name="Junio - 2020" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{1AE8B78F-83CA-400F-A18D-BBDF7D2D12E3}" name="Julio - 2020" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{FB9DB70F-15DB-49F8-96DF-EBF8580317B9}" name="Agosto - 2020" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EF2D0EDB-CB3A-49D6-BA57-39DAD0B774C5}" name="Septiembre - 2020" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,36 +1149,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="10" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -772,7 +1213,7 @@
       <c r="K4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -2755,7 +3196,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2763,1803 +3204,1806 @@
     <col min="1" max="1" width="45.33203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="15.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="9">
         <v>627152579.74000013</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="9">
         <v>375223738.3099997</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="9">
         <v>325331957.93999994</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="9">
         <v>341680369.07999986</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="9">
         <v>379693047.20000035</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="9">
         <v>282112670.52999938</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="9">
         <v>293935963.51999986</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="9">
         <v>322405383.38999957</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>251144132.88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="9">
         <v>635608.23</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="9">
         <v>772270.17999999993</v>
       </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
         <v>1250</v>
       </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
         <v>2385.2400000000002</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>3906.39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="9">
         <v>53111.09</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="9">
         <v>38028.07</v>
       </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
         <v>52296.49</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="9">
         <v>14670.56</v>
       </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="9">
         <v>70543.820000000007</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="9">
         <v>64167.01</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="9">
         <v>41614.959999999999</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="9">
         <v>7738.83</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="9">
         <v>938859.93</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="9">
         <v>6005.45</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="9">
         <v>7354.4</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="9">
         <v>4034.2</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>271595.13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
         <v>4000</v>
       </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
         <v>7432.24</v>
       </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <v>21071.95</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
         <v>5124.18</v>
       </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>26939.84</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>3203558.28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="9">
         <v>647885084.49000013</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="9">
         <v>262399554.62000006</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="9">
         <v>569270247.9000001</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="9">
         <v>376383523.45999998</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="9">
         <v>327422502.52000004</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="9">
         <v>391864252.13</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="9">
         <v>116491439.28000002</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="9">
         <v>264628451.38000003</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>222773055.22999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="9">
         <v>19525679.889999997</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="9">
         <v>14001823.920000006</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="9">
         <v>20245673.960000005</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="9">
         <v>18777367.430000003</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="9">
         <v>18869204.710000001</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="9">
         <v>19938987.420000002</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="9">
         <v>27804903.840000004</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="9">
         <v>22075786.629999999</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>15596025.539999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="9">
         <v>43073270.149999999</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="9">
         <v>31408885.469999999</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="9">
         <v>26237028.489999998</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="9">
         <v>27160921.670000002</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="9">
         <v>31249001.740000002</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="9">
         <v>7343486.4100000001</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="9">
         <v>27842341.400000002</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="9">
         <v>7536505.4400000004</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>17552406.390000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="9">
         <v>9179267.7599999998</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="9">
         <v>11056601.6</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="9">
         <v>7678366.6399999997</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="9">
         <v>4526673.1500000004</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="9">
         <v>7742720.6699999999</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="9">
         <v>10842040.310000001</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="9">
         <v>7006821.71</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="9">
         <v>2661750.42</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="9">
         <v>212969399.15000001</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="9">
         <v>74695498.569999993</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="9">
         <v>200145906.86000001</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="9">
         <v>238697321.53</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="9">
         <v>110249933.61</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="9">
         <v>152121576.27000001</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="9">
         <v>205712535.59</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="9">
         <v>187174401.15000001</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>120529766.83</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="9">
         <v>361106334.19000006</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="9">
         <v>285702693.63</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="9">
         <v>368999828.48999995</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="9">
         <v>657287836.47000003</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="9">
         <v>328919504.11999995</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="9">
         <v>390353558.80000001</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="9">
         <v>502642012.76999998</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="9">
         <v>574828175.88</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>220646906.38999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="9">
         <v>551351.49</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="9">
         <v>1906150.0200000003</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="9">
         <v>817395.63</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="9">
         <v>580634.69999999995</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="9">
         <v>672028.86</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="9">
         <v>1041838.56</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="9">
         <v>2283734.4699999997</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="9">
         <v>4781062.8599999994</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>2328836.1800000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="16">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
         <v>450000</v>
       </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
         <v>3358040.43</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="9">
         <v>4330620</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="9">
         <v>51748.28</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>5410334</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
         <v>4663.8900000000003</v>
       </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
         <v>4827808.9000000004</v>
       </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
         <v>16684708.120000001</v>
       </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16">
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="16">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
         <v>746942</v>
       </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="9">
         <v>12224505.349999987</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="9">
         <v>7245245.0899999924</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="9">
         <v>9602348.6799999978</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="9">
         <v>7393481.2000000011</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="9">
         <v>8598681.0899999999</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="9">
         <v>8591187.9199999981</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="9">
         <v>8349892.2300000004</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="9">
         <v>9428979.2499999981</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>12975738.280000003</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="9">
         <v>6744884.2100000009</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="9">
         <v>5774937.7300000004</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="9">
         <v>2050435.1900000002</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="9">
         <v>9650665.1100000013</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="9">
         <v>1861659.27</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="9">
         <v>575485.22</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="9">
         <v>2706570.66</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="9">
         <v>490095.36000000004</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>10103411.960000003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="9">
         <v>13605033.749999998</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="9">
         <v>9406104.040000001</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="9">
         <v>12890856.100000003</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="9">
         <v>9781399.4899999946</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="9">
         <v>9071485.8300000001</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="9">
         <v>9785951.6300000008</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="9">
         <v>10456422.980000002</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="9">
         <v>12685565.470000001</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>10700484.060000002</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="9">
         <v>60516416.230000004</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="9">
         <v>80751799.299999997</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="9">
         <v>89078009.5</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="9">
         <v>30548567.649999999</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="9">
         <v>48342501.379999995</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="9">
         <v>37343021.460000001</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="9">
         <v>58779014.729999997</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="9">
         <v>19848543.539999999</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>31061665.650000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="9">
         <v>398170573.7299999</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="9">
         <v>305343941.55000001</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="9">
         <v>303825792.18000007</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="9">
         <v>328436068.42000031</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="9">
         <v>309398307.69</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="9">
         <v>329429594.59000063</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="9">
         <v>301578081.91999984</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="9">
         <v>295656333.64999992</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <v>288446964.44</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="9">
         <v>6678926.79</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="9">
         <v>7420409.9500000002</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="9">
         <v>7963802.5300000003</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="9">
         <v>3551557.36</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="9">
         <v>5508679.6699999999</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="9">
         <v>7240664.6199999992</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="9">
         <v>3154084.3</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="9">
         <v>8290926.1200000001</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>3146134.13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="9">
         <v>104964021.73000003</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="9">
         <v>82248876.559999943</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="9">
         <v>97426673.529999912</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="9">
         <v>75791101.430000037</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="9">
         <v>75515957.530000031</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="9">
         <v>80770291.140000045</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="9">
         <v>93061099.639999986</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="9">
         <v>124069207.58</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <v>127700721.96999991</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="9">
         <v>17150511.990000002</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="9">
         <v>6725635.6200000001</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="9">
         <v>8168195.46</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="9">
         <v>7747740.8900000006</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="9">
         <v>27184426.949999999</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="9">
         <v>26265637.990000002</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="9">
         <v>21565396.329999998</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="9">
         <v>33124958.529999997</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <v>17758177.960000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="9">
         <v>19519928.449999999</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="9">
         <v>31809016.32</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="9">
         <v>50258298.530000001</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="9">
         <v>52662963.879999995</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="9">
         <v>37274558.329999998</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="9">
         <v>33265498.859999999</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="9">
         <v>71166574.390000001</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="9">
         <v>60695069.269999996</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>55744296.390000001</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="9">
         <v>6917235.54</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="9">
         <v>13589866.610000001</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="9">
         <v>12003544.33</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="9">
         <v>4927467.9000000004</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="9">
         <v>4300147.49</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="9">
         <v>4828119.58</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="9">
         <v>5054341.0000000009</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="9">
         <v>7470862.9799999995</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="15">
         <v>5007176.6500000004</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="9">
         <v>78367835.890000001</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="9">
         <v>60710214.29999999</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="9">
         <v>61752286.199999996</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="9">
         <v>79068569.319999993</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="9">
         <v>38851559.43</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="9">
         <v>108348074.21000001</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="9">
         <v>77440460.87000002</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="9">
         <v>61953175.369999997</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="15">
         <v>51005310.18</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="9">
         <v>977172.9800000001</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="9">
         <v>1400843.86</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="9">
         <v>1217086.7399999998</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="9">
         <v>612894.9</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="9">
         <v>2068175.8599999999</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="9">
         <v>7228108.5799999991</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="9">
         <v>2899677.52</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="9">
         <v>2111039</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="15">
         <v>2412044.1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="16">
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="B30" s="9">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
         <v>73022.040000000008</v>
       </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="9">
         <v>276656258.82999992</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="9">
         <v>158506097.32999998</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="9">
         <v>210551452.18999994</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="9">
         <v>205711227.13999999</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="9">
         <v>255232876.31</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="9">
         <v>226403478.88999999</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="9">
         <v>203996391.78000003</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="9">
         <v>184227004.92000008</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="15">
         <v>218737521.56000006</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="9">
         <v>162724708.11000001</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="9">
         <v>141992587.94</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="9">
         <v>158483109.05000001</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="9">
         <v>197583845.49000001</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="9">
         <v>76175030.370000005</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="9">
         <v>276438239.67999995</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="9">
         <v>144595593.73000002</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="9">
         <v>146943877.36000001</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="15">
         <v>205053779.32999998</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="9">
         <v>948.91</v>
       </c>
-      <c r="C33" s="16">
-        <v>0</v>
-      </c>
-      <c r="D33" s="16">
-        <v>0</v>
-      </c>
-      <c r="E33" s="16">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16">
-        <v>0</v>
-      </c>
-      <c r="G33" s="16">
-        <v>0</v>
-      </c>
-      <c r="H33" s="16">
-        <v>0</v>
-      </c>
-      <c r="I33" s="16">
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="9">
         <v>105015.06</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="9">
         <v>81083.72</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="9">
         <v>180052.71</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="9">
         <v>13097.95</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="9">
         <v>44041.13</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="9">
         <v>84277.79</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="9">
         <v>137599.23000000001</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="9">
         <v>36951.93</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <v>64772553.719999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="9">
         <v>92372260.810000002</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="9">
         <v>186719279.17000002</v>
       </c>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="16">
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
         <v>117994765.45</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="9">
         <v>68052778.239999995</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="9">
         <v>92885258.010000005</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="9">
         <v>41820172.420000002</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="9">
         <v>58960651.5</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <v>92775174.469999999</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="9">
         <v>10962520.32</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="9">
         <v>11987560.129999999</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="9">
         <v>9941492.1799999997</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="9">
         <v>7844344.5799999982</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="9">
         <v>7368220.6899999995</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="9">
         <v>11825657.149999999</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="9">
         <v>15284322.799999999</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="9">
         <v>10852806.83</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <v>8520096.8100000005</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="9">
         <v>642.19000000000005</v>
       </c>
-      <c r="C37" s="16">
-        <v>0</v>
-      </c>
-      <c r="D37" s="16">
-        <v>0</v>
-      </c>
-      <c r="E37" s="16">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0</v>
-      </c>
-      <c r="H37" s="16">
-        <v>0</v>
-      </c>
-      <c r="I37" s="16">
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
+      <c r="C37" s="9">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="9">
         <v>8666027.9499999974</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="9">
         <v>2478833.85</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="9">
         <v>5704607.4500000011</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="9">
         <v>3153558.2300000004</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="9">
         <v>102047.93</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="9">
         <v>2366997.2200000002</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="9">
         <v>965397.36</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="9">
         <v>1553085.6700000002</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="15">
         <v>15599298.77</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="9">
         <v>405416999.39999998</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="9">
         <v>137116002.88999999</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="9">
         <v>216339113.74000001</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="9">
         <v>93124713.120000005</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="9">
         <v>176509395.09999999</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="9">
         <v>243352427.92000002</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="9">
         <v>251802819.43000001</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="9">
         <v>247429308.59999999</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="15">
         <v>279718088.93000001</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="9">
         <v>8465187.0800000001</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="9">
         <v>8513574.620000001</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="9">
         <v>7735024.7999999998</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="9">
         <v>5749243.0800000001</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="9">
         <v>6237144.3300000001</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="9">
         <v>10038060.42</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="9">
         <v>3838167.44</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="9">
         <v>8113656.8300000001</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="15">
         <v>4956242.88</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="9">
         <v>6141.84</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="9">
         <v>2580550.0299999998</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="9">
         <v>9320.24</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="9">
         <v>21218.01</v>
       </c>
-      <c r="F41" s="16">
-        <v>0</v>
-      </c>
-      <c r="G41" s="16">
-        <v>0</v>
-      </c>
-      <c r="H41" s="16">
-        <v>0</v>
-      </c>
-      <c r="I41" s="16">
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
         <v>6858</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="9">
         <v>44244783.379999988</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="9">
         <v>57543450.12000002</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="9">
         <v>42501769.460000001</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="9">
         <v>21774113.970000003</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="9">
         <v>14636386.07</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="9">
         <v>14604025.919999996</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="9">
         <v>18475790.93</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="9">
         <v>9130650.7599999998</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="15">
         <v>13098491.6</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="9">
         <v>842571231.77000022</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="9">
         <v>460933155.31</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="9">
         <v>932210240.15999985</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="9">
         <v>806942834.71000004</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="9">
         <v>713003735.0999999</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="9">
         <v>986291927.39999986</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="9">
         <v>1089462152.4800003</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="9">
         <v>851321557.58000004</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="15">
         <v>722527344.03000033</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="9">
         <v>255053.16</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="9">
         <v>115476.8</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="9">
         <v>7036960.1699999999</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="9">
         <v>344293.85</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="9">
         <v>3197854.97</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="9">
         <v>6735714.3599999994</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="9">
         <v>3252645.1</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="9">
         <v>3625241.2600000002</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="15">
         <v>3510506.55</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="16">
-        <v>0</v>
-      </c>
-      <c r="C45" s="16">
+      <c r="B45" s="9">
+        <v>0</v>
+      </c>
+      <c r="C45" s="9">
         <v>250000</v>
       </c>
-      <c r="D45" s="16">
-        <v>0</v>
-      </c>
-      <c r="E45" s="16">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="9">
         <v>4493925.8900000006</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="9">
         <v>4029705.87</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="9">
         <v>4059111.3499999996</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="9">
         <v>1206446.75</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="9">
         <v>282490.65000000002</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="9">
         <v>630595.74</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="9">
         <v>454185.42</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="9">
         <v>362247.24</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="15">
         <v>412878.23</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="9">
         <v>5598573.2300000004</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="9">
         <v>76431.430000000008</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="9">
         <v>5979557.3900000006</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="9">
         <v>1838503.92</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="9">
         <v>107270.75</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="9">
         <v>355684.14</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="9">
         <v>123589.59</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="9">
         <v>89484.25</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="15">
         <v>74303.31</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="9">
         <v>1313968310.3300002</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="9">
         <v>784472500.23999941</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="9">
         <v>994699351.24000037</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="9">
         <v>934624267.45999777</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="9">
         <v>1040545045.879999</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="9">
         <v>927878061.43999839</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="9">
         <v>1041496347.9899997</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="9">
         <v>1036061975.0000021</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="15">
         <v>1053375045.1299999</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="9">
         <v>2267.1799999999998</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="9">
         <v>69008.94</v>
       </c>
-      <c r="D49" s="16">
-        <v>0</v>
-      </c>
-      <c r="E49" s="16">
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="9">
         <v>121786</v>
       </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
-        <v>0</v>
-      </c>
-      <c r="I49" s="16">
-        <v>0</v>
-      </c>
-      <c r="J49" s="16">
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="9">
         <v>221078952.18000001</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="9">
         <v>192436283.74000007</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="9">
         <v>236233791.1399999</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="9">
         <v>250908700.57999989</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="9">
         <v>204008013.64000005</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="9">
         <v>221852264.44999999</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="9">
         <v>243207867.20000005</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="9">
         <v>218453152.02000019</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="15">
         <v>178571253.7700001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="9">
         <v>8609960.2400000002</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="9">
         <v>10267650.73</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="9">
         <v>3803754.08</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="9">
         <v>11501289.57</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="9">
         <v>18208787.41</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="9">
         <v>3543558.69</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="9">
         <v>4997127.83</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="9">
         <v>12361138.359999999</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="15">
         <v>865355.01</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="9">
         <v>26144749.650000002</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="9">
         <v>37902783.559999995</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="9">
         <v>29204269.690000005</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="9">
         <v>67545174.950000018</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="9">
         <v>53687156.139999993</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="9">
         <v>55009628.31000001</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="9">
         <v>31786794.799999993</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="9">
         <v>34901200.25</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="15">
         <v>23978228.099999998</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="9">
         <v>989200312.90999961</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="9">
         <v>609092599.49000049</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="9">
         <v>553225840.43000007</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="9">
         <v>537066335.19999993</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="9">
         <v>415875655.0600003</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="9">
         <v>381610508.74000055</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="9">
         <v>451548558.1099999</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="9">
         <v>367732870.06000018</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="15">
         <v>463251266.67999971</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="9">
         <v>192942562.22999999</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="9">
         <v>98628369.519999996</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="9">
         <v>147591229.38</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="9">
         <v>285996882.01999998</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="9">
         <v>147403826.11000001</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="9">
         <v>108795753.37</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="9">
         <v>178858858.07999998</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="9">
         <v>152880583.74999997</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="15">
         <v>142165432.97</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="16">
-        <v>0</v>
-      </c>
-      <c r="C55" s="16">
+      <c r="B55" s="9">
+        <v>0</v>
+      </c>
+      <c r="C55" s="9">
         <v>44156</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="9">
         <v>17282</v>
       </c>
-      <c r="E55" s="16">
-        <v>0</v>
-      </c>
-      <c r="F55" s="16">
-        <v>0</v>
-      </c>
-      <c r="G55" s="16">
-        <v>0</v>
-      </c>
-      <c r="H55" s="16">
-        <v>0</v>
-      </c>
-      <c r="I55" s="16">
-        <v>0</v>
-      </c>
-      <c r="J55" s="16">
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="20">
         <v>78469763.920000046</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="20">
         <v>57173383.800000019</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="20">
         <v>44820081.789999992</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="20">
         <v>76176876.37999998</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="20">
         <v>39966980.12999998</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="20">
         <v>38371077.929999985</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="20">
         <v>36199118.089999996</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="20">
         <v>34660146.779999994</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="21">
         <v>29831570.23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/VALOR/Exportación por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
+++ b/VALOR/Exportación por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8C292E-865F-4A9C-A22D-CEF0E74BCC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AEB651-BEBC-447A-B0D8-E667AEFCE2AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="554" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="4320" windowWidth="21600" windowHeight="11385" tabRatio="554" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="puerto_monto" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>Lugar de Salida (Puerto-Aeropuerto-Avanzada)</t>
   </si>
@@ -251,6 +251,24 @@
   <si>
     <t>Total general</t>
   </si>
+  <si>
+    <t>CONSTITUCION</t>
+  </si>
+  <si>
+    <t>GREGORIO</t>
+  </si>
+  <si>
+    <t>SAN PEDRO DE ATACAMA</t>
+  </si>
+  <si>
+    <t>Octubre - 2020</t>
+  </si>
+  <si>
+    <t>Noviembre - 2020</t>
+  </si>
+  <si>
+    <t>Diciembre - 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +312,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -470,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -485,6 +516,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,24 +533,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -527,7 +559,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -551,12 +583,79 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -833,6 +932,14 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -847,19 +954,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C1B4690-F392-49EA-B656-7845E7936CC1}" name="exp_salida_valor_2020" displayName="exp_salida_valor_2020" ref="A1:J56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:J56" xr:uid="{7A094E5F-82F8-4F36-A6EF-F71447B3CD5A}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{31A9BF21-4E66-4E83-B662-BD3806F92937}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9F8F6718-12CD-4496-975D-874555B767FA}" name="Enero - 2020" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{1D47C732-87B0-4120-B769-7F5C26204D4A}" name="Febrero - 2020" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A743DC19-EA56-4D04-AFF0-F28CF8BE3DFE}" name="Marzo - 2020" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4AFF5666-80BB-4E1C-8FC5-F73CABF9A633}" name="Abril - 2020" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{DB0A3F01-A060-4507-89C0-C7B66A328B64}" name="Mayo - 2020" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A723A1D1-6820-4214-8175-68474A458A9F}" name="Junio - 2020" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{1AE8B78F-83CA-400F-A18D-BBDF7D2D12E3}" name="Julio - 2020" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{FB9DB70F-15DB-49F8-96DF-EBF8580317B9}" name="Agosto - 2020" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{EF2D0EDB-CB3A-49D6-BA57-39DAD0B774C5}" name="Septiembre - 2020" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C1B4690-F392-49EA-B656-7845E7936CC1}" name="exp_salida_valor_2020" displayName="exp_salida_valor_2020" ref="A1:M59" totalsRowShown="0" headerRowDxfId="0" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:M59" xr:uid="{7A094E5F-82F8-4F36-A6EF-F71447B3CD5A}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{31A9BF21-4E66-4E83-B662-BD3806F92937}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9F8F6718-12CD-4496-975D-874555B767FA}" name="Enero - 2020" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{1D47C732-87B0-4120-B769-7F5C26204D4A}" name="Febrero - 2020" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A743DC19-EA56-4D04-AFF0-F28CF8BE3DFE}" name="Marzo - 2020" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{4AFF5666-80BB-4E1C-8FC5-F73CABF9A633}" name="Abril - 2020" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{DB0A3F01-A060-4507-89C0-C7B66A328B64}" name="Mayo - 2020" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{A723A1D1-6820-4214-8175-68474A458A9F}" name="Junio - 2020" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{1AE8B78F-83CA-400F-A18D-BBDF7D2D12E3}" name="Julio - 2020" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{FB9DB70F-15DB-49F8-96DF-EBF8580317B9}" name="Agosto - 2020" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{EF2D0EDB-CB3A-49D6-BA57-39DAD0B774C5}" name="Septiembre - 2020" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{894ECA0F-3277-4861-9202-6F8B83F2E7E6}" name="Octubre - 2020" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{5E7B120A-835E-473F-8BFC-383503B90B16}" name="Noviembre - 2020" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{1D4ED228-8346-4471-8439-D7837B0E9AEE}" name="Diciembre - 2020" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1137,52 +1247,52 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="11" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1213,9 +1323,9 @@
       <c r="K4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1250,7 +1360,7 @@
         <v>3198679842.5899987</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1395,7 @@
         <v>1415420.0399999998</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1320,7 +1430,7 @@
         <v>158106.21</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1355,7 +1465,7 @@
         <v>1411913.73</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +1500,7 @@
         <v>32504.190000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,7 +1535,7 @@
         <v>3235622.3</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1460,7 +1570,7 @@
         <v>3179118111.0100007</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1605,7 @@
         <v>176835453.34</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1530,7 +1640,7 @@
         <v>219403847.16000003</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1565,7 +1675,7 @@
         <v>60694242.260000005</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1710,7 @@
         <v>1502296339.5599999</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,7 +1745,7 @@
         <v>3690486850.7399998</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1670,7 +1780,7 @@
         <v>14963032.77</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
@@ -1705,7 +1815,7 @@
         <v>13600742.710000001</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
@@ -1740,7 +1850,7 @@
         <v>21517180.91</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1775,7 +1885,7 @@
         <v>746942</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1810,7 +1920,7 @@
         <v>84410059.089999989</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +1955,7 @@
         <v>39958144.710000001</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1990,7 @@
         <v>98383303.349999994</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,7 +2025,7 @@
         <v>456269539.44</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1950,7 +2060,7 @@
         <v>2860285658.170001</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1985,7 +2095,7 @@
         <v>52955185.469999991</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2020,7 +2130,7 @@
         <v>861547951.1099999</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
@@ -2055,7 +2165,7 @@
         <v>165690681.72</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2090,7 +2200,7 @@
         <v>412396204.41999996</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2125,7 +2235,7 @@
         <v>64098762.079999998</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2160,7 +2270,7 @@
         <v>617497485.76999998</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2195,7 +2305,7 @@
         <v>20927043.539999999</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2230,7 +2340,7 @@
         <v>73022.040000000008</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
@@ -2265,7 +2375,7 @@
         <v>1940022308.9500003</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2300,7 +2410,7 @@
         <v>1509990771.0599999</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2335,7 +2445,7 @@
         <v>948.91</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2370,7 +2480,7 @@
         <v>65454673.240000002</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2405,7 +2515,7 @@
         <v>751580340.07000005</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,7 +2550,7 @@
         <v>94587021.489999995</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2475,7 +2585,7 @@
         <v>642.19000000000005</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
@@ -2510,7 +2620,7 @@
         <v>40589854.43</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2545,7 +2655,7 @@
         <v>2050808869.1300001</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2580,7 +2690,7 @@
         <v>63646301.480000004</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2615,7 +2725,7 @@
         <v>2624088.1199999996</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
@@ -2650,7 +2760,7 @@
         <v>236009462.20999998</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2685,7 +2795,7 @@
         <v>7405264178.5400009</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
@@ -2720,7 +2830,7 @@
         <v>28073746.220000003</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2755,7 +2865,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2790,7 +2900,7 @@
         <v>15931587.140000002</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2825,7 +2935,7 @@
         <v>14243398.010000002</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2860,7 +2970,7 @@
         <v>9127120904.7099972</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>67</v>
       </c>
@@ -2895,7 +3005,7 @@
         <v>193062.12</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2930,7 +3040,7 @@
         <v>1966750278.7200003</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2965,7 +3075,7 @@
         <v>74158621.920000002</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
@@ -3000,7 +3110,7 @@
         <v>360159985.45000005</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>68</v>
       </c>
@@ -3035,7 +3145,7 @@
         <v>4768603946.6800003</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
@@ -3070,7 +3180,7 @@
         <v>1455263497.4300001</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
@@ -3105,7 +3215,7 @@
         <v>61438</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3140,7 +3250,7 @@
         <v>435668999.05000001</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>70</v>
       </c>
@@ -3175,7 +3285,7 @@
         <v>50226148117.700005</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>56</v>
       </c>
@@ -3193,87 +3303,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62C723F-8293-4942-BE47-CD1A3129C21E}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J56"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="15.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="45.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="K1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="9">
-        <v>627152579.74000013</v>
+        <v>627241875.44000018</v>
       </c>
       <c r="C2" s="9">
-        <v>375223738.3099997</v>
+        <v>374752880.53999966</v>
       </c>
       <c r="D2" s="9">
-        <v>325331957.93999994</v>
+        <v>326120254.85000002</v>
       </c>
       <c r="E2" s="9">
-        <v>341680369.07999986</v>
+        <v>345220100.0199998</v>
       </c>
       <c r="F2" s="9">
-        <v>379693047.20000035</v>
+        <v>378463478.28000039</v>
       </c>
       <c r="G2" s="9">
-        <v>282112670.52999938</v>
+        <v>281861176.35999942</v>
       </c>
       <c r="H2" s="9">
-        <v>293935963.51999986</v>
+        <v>294177241.8299998</v>
       </c>
       <c r="I2" s="9">
-        <v>322405383.38999957</v>
-      </c>
-      <c r="J2" s="15">
-        <v>251144132.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+        <v>321077208.77999949</v>
+      </c>
+      <c r="J2" s="11">
+        <v>257578041.91000003</v>
+      </c>
+      <c r="K2" s="19">
+        <v>335295208.14000016</v>
+      </c>
+      <c r="L2" s="19">
+        <v>292834039.20999968</v>
+      </c>
+      <c r="M2" s="19">
+        <v>352026472.10999978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="9">
@@ -3300,12 +3432,21 @@
       <c r="I3" s="9">
         <v>2385.2400000000002</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>3906.39</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>28602.41</v>
+      </c>
+      <c r="M3" s="9">
+        <v>33823.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="9">
@@ -3332,12 +3473,21 @@
       <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="9">
@@ -3364,12 +3514,21 @@
       <c r="I5" s="9">
         <v>4034.2</v>
       </c>
-      <c r="J5" s="15">
-        <v>271595.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="J5" s="11">
+        <v>271605.13</v>
+      </c>
+      <c r="K5" s="9">
+        <v>980133.09</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>19517556.379999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="9">
@@ -3396,12 +3555,21 @@
       <c r="I6" s="9">
         <v>21071.95</v>
       </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="9">
@@ -3428,76 +3596,103 @@
       <c r="I7" s="9">
         <v>26939.84</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="11">
         <v>3203558.28</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="9">
-        <v>647885084.49000013</v>
+        <v>647296336.06000006</v>
       </c>
       <c r="C8" s="9">
-        <v>262399554.62000006</v>
+        <v>258966046.20000005</v>
       </c>
       <c r="D8" s="9">
-        <v>569270247.9000001</v>
+        <v>567542895.36000013</v>
       </c>
       <c r="E8" s="9">
-        <v>376383523.45999998</v>
+        <v>373102367.06999999</v>
       </c>
       <c r="F8" s="9">
-        <v>327422502.52000004</v>
+        <v>328762145.00999999</v>
       </c>
       <c r="G8" s="9">
-        <v>391864252.13</v>
+        <v>403732730.00999999</v>
       </c>
       <c r="H8" s="9">
-        <v>116491439.28000002</v>
+        <v>118264900.45999999</v>
       </c>
       <c r="I8" s="9">
-        <v>264628451.38000003</v>
-      </c>
-      <c r="J8" s="15">
-        <v>222773055.22999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+        <v>266255835.02000001</v>
+      </c>
+      <c r="J8" s="11">
+        <v>222932385.66</v>
+      </c>
+      <c r="K8" s="9">
+        <v>23457934.259999998</v>
+      </c>
+      <c r="L8" s="9">
+        <v>324833670.02000004</v>
+      </c>
+      <c r="M8" s="9">
+        <v>431157625.86000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="9">
         <v>19525679.889999997</v>
       </c>
       <c r="C9" s="9">
-        <v>14001823.920000006</v>
+        <v>14016576.350000005</v>
       </c>
       <c r="D9" s="9">
-        <v>20245673.960000005</v>
+        <v>20298292.490000006</v>
       </c>
       <c r="E9" s="9">
-        <v>18777367.430000003</v>
+        <v>18833030.630000003</v>
       </c>
       <c r="F9" s="9">
-        <v>18869204.710000001</v>
+        <v>18899904.849999998</v>
       </c>
       <c r="G9" s="9">
-        <v>19938987.420000002</v>
+        <v>19582939.470000003</v>
       </c>
       <c r="H9" s="9">
-        <v>27804903.840000004</v>
+        <v>27785323.470000003</v>
       </c>
       <c r="I9" s="9">
-        <v>22075786.629999999</v>
-      </c>
-      <c r="J9" s="15">
-        <v>15596025.539999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+        <v>22065399.380000003</v>
+      </c>
+      <c r="J9" s="11">
+        <v>17200808.289999999</v>
+      </c>
+      <c r="K9" s="9">
+        <v>23026376.469999995</v>
+      </c>
+      <c r="L9" s="9">
+        <v>23562005.599999994</v>
+      </c>
+      <c r="M9" s="9">
+        <v>17801439.210000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9">
@@ -3510,26 +3705,35 @@
         <v>26237028.489999998</v>
       </c>
       <c r="E10" s="9">
-        <v>27160921.670000002</v>
+        <v>24121379.940000001</v>
       </c>
       <c r="F10" s="9">
-        <v>31249001.740000002</v>
+        <v>26757654.020000003</v>
       </c>
       <c r="G10" s="9">
         <v>7343486.4100000001</v>
       </c>
       <c r="H10" s="9">
-        <v>27842341.400000002</v>
+        <v>26728795.600000001</v>
       </c>
       <c r="I10" s="9">
         <v>7536505.4400000004</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="11">
         <v>17552406.390000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="K10" s="9">
+        <v>26026987.850000001</v>
+      </c>
+      <c r="L10" s="9">
+        <v>17437794.390000001</v>
+      </c>
+      <c r="M10" s="9">
+        <v>15771592.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="9">
@@ -3556,76 +3760,103 @@
       <c r="I11" s="9">
         <v>2661750.42</v>
       </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>6610923.4100000001</v>
+      </c>
+      <c r="M11" s="9">
+        <v>2739161.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="9">
-        <v>212969399.15000001</v>
+        <v>213057747.13</v>
       </c>
       <c r="C12" s="9">
         <v>74695498.569999993</v>
       </c>
       <c r="D12" s="9">
-        <v>200145906.86000001</v>
+        <v>198816080.39000002</v>
       </c>
       <c r="E12" s="9">
-        <v>238697321.53</v>
+        <v>262641994.63000003</v>
       </c>
       <c r="F12" s="9">
-        <v>110249933.61</v>
+        <v>133379202.94999999</v>
       </c>
       <c r="G12" s="9">
-        <v>152121576.27000001</v>
+        <v>182746923.89000002</v>
       </c>
       <c r="H12" s="9">
-        <v>205712535.59</v>
+        <v>223187437.52000001</v>
       </c>
       <c r="I12" s="9">
-        <v>187174401.15000001</v>
-      </c>
-      <c r="J12" s="15">
+        <v>189943072.81999999</v>
+      </c>
+      <c r="J12" s="11">
         <v>120529766.83</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="K12" s="9">
+        <v>120747786.98999999</v>
+      </c>
+      <c r="L12" s="9">
+        <v>172784899.15000001</v>
+      </c>
+      <c r="M12" s="9">
+        <v>112343164.13000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="9">
-        <v>361106334.19000006</v>
+        <v>351224355.59000003</v>
       </c>
       <c r="C13" s="9">
-        <v>285702693.63</v>
+        <v>279937047.14999998</v>
       </c>
       <c r="D13" s="9">
-        <v>368999828.48999995</v>
+        <v>366443087.75999999</v>
       </c>
       <c r="E13" s="9">
-        <v>657287836.47000003</v>
+        <v>678299889.5</v>
       </c>
       <c r="F13" s="9">
-        <v>328919504.11999995</v>
+        <v>381512714.68000001</v>
       </c>
       <c r="G13" s="9">
-        <v>390353558.80000001</v>
+        <v>406533867.54000002</v>
       </c>
       <c r="H13" s="9">
-        <v>502642012.76999998</v>
+        <v>512426601.14999998</v>
       </c>
       <c r="I13" s="9">
         <v>574828175.88</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="11">
         <v>220646906.38999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="K13" s="9">
+        <v>639971361.30999994</v>
+      </c>
+      <c r="L13" s="9">
+        <v>122803479</v>
+      </c>
+      <c r="M13" s="9">
+        <v>646630827.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="9">
@@ -3652,12 +3883,21 @@
       <c r="I14" s="9">
         <v>4781062.8599999994</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="11">
         <v>2328836.1800000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="K14" s="9">
+        <v>682904.83999999985</v>
+      </c>
+      <c r="L14" s="9">
+        <v>292229.38</v>
+      </c>
+      <c r="M14" s="9">
+        <v>434747.15999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="9">
@@ -3684,12 +3924,21 @@
       <c r="I15" s="9">
         <v>51748.28</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="11">
         <v>5410334</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>7661762</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="9">
@@ -3702,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="9">
-        <v>4827808.9000000004</v>
+        <v>4174709.23</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -3716,12 +3965,21 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="9">
@@ -3748,12 +4006,21 @@
       <c r="I17" s="9">
         <v>0</v>
       </c>
-      <c r="J17" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="9">
@@ -3763,29 +4030,38 @@
         <v>7245245.0899999924</v>
       </c>
       <c r="D18" s="9">
-        <v>9602348.6799999978</v>
+        <v>9746397.6799999978</v>
       </c>
       <c r="E18" s="9">
-        <v>7393481.2000000011</v>
+        <v>7562281.7000000011</v>
       </c>
       <c r="F18" s="9">
-        <v>8598681.0899999999</v>
+        <v>8808517.0900000017</v>
       </c>
       <c r="G18" s="9">
-        <v>8591187.9199999981</v>
+        <v>8922515.9199999962</v>
       </c>
       <c r="H18" s="9">
-        <v>8349892.2300000004</v>
+        <v>8601635.2299999986</v>
       </c>
       <c r="I18" s="9">
-        <v>9428979.2499999981</v>
-      </c>
-      <c r="J18" s="15">
-        <v>12975738.280000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+        <v>9759789.5399999972</v>
+      </c>
+      <c r="J18" s="11">
+        <v>13290050.320000006</v>
+      </c>
+      <c r="K18" s="9">
+        <v>26404288.760000024</v>
+      </c>
+      <c r="L18" s="9">
+        <v>30393779.700000029</v>
+      </c>
+      <c r="M18" s="9">
+        <v>9704589.9799999967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="9">
@@ -3812,1195 +4088,1661 @@
       <c r="I19" s="9">
         <v>490095.36000000004</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="11">
         <v>10103411.960000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="K19" s="9">
+        <v>1816701.51</v>
+      </c>
+      <c r="L19" s="9">
+        <v>16899879.009999998</v>
+      </c>
+      <c r="M19" s="9">
+        <v>18912957.930000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="9">
-        <v>13605033.749999998</v>
+        <v>13603800.15</v>
       </c>
       <c r="C20" s="9">
-        <v>9406104.040000001</v>
+        <v>9419605.040000001</v>
       </c>
       <c r="D20" s="9">
-        <v>12890856.100000003</v>
+        <v>12881900.110000003</v>
       </c>
       <c r="E20" s="9">
-        <v>9781399.4899999946</v>
+        <v>9772594.4899999946</v>
       </c>
       <c r="F20" s="9">
-        <v>9071485.8300000001</v>
+        <v>9069038.3300000001</v>
       </c>
       <c r="G20" s="9">
-        <v>9785951.6300000008</v>
+        <v>9858233.6300000008</v>
       </c>
       <c r="H20" s="9">
-        <v>10456422.980000002</v>
+        <v>10600090.480000002</v>
       </c>
       <c r="I20" s="9">
-        <v>12685565.470000001</v>
-      </c>
-      <c r="J20" s="15">
-        <v>10700484.060000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+        <v>12801100.470000001</v>
+      </c>
+      <c r="J20" s="11">
+        <v>10858741.99</v>
+      </c>
+      <c r="K20" s="9">
+        <v>10995220.460000006</v>
+      </c>
+      <c r="L20" s="9">
+        <v>16471496.939999998</v>
+      </c>
+      <c r="M20" s="9">
+        <v>15023378.449999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>44177.440000000002</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="9">
-        <v>60516416.230000004</v>
-      </c>
-      <c r="C21" s="9">
-        <v>80751799.299999997</v>
-      </c>
-      <c r="D21" s="9">
-        <v>89078009.5</v>
-      </c>
-      <c r="E21" s="9">
-        <v>30548567.649999999</v>
-      </c>
-      <c r="F21" s="9">
-        <v>48342501.379999995</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="B22" s="9">
+        <v>57991617.119999997</v>
+      </c>
+      <c r="C22" s="9">
+        <v>80841168.560000002</v>
+      </c>
+      <c r="D22" s="9">
+        <v>87684595.320000008</v>
+      </c>
+      <c r="E22" s="9">
+        <v>30438410.219999999</v>
+      </c>
+      <c r="F22" s="9">
+        <v>50852050.509999998</v>
+      </c>
+      <c r="G22" s="9">
         <v>37343021.460000001</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H22" s="9">
         <v>58779014.729999997</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I22" s="9">
         <v>19848543.539999999</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J22" s="11">
         <v>31061665.650000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="K22" s="9">
+        <v>53368497.450000003</v>
+      </c>
+      <c r="L22" s="9">
+        <v>43217608.349999994</v>
+      </c>
+      <c r="M22" s="9">
+        <v>32979134.329999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="9">
-        <v>398170573.7299999</v>
-      </c>
-      <c r="C22" s="9">
-        <v>305343941.55000001</v>
-      </c>
-      <c r="D22" s="9">
-        <v>303825792.18000007</v>
-      </c>
-      <c r="E22" s="9">
-        <v>328436068.42000031</v>
-      </c>
-      <c r="F22" s="9">
-        <v>309398307.69</v>
-      </c>
-      <c r="G22" s="9">
-        <v>329429594.59000063</v>
-      </c>
-      <c r="H22" s="9">
-        <v>301578081.91999984</v>
-      </c>
-      <c r="I22" s="9">
-        <v>295656333.64999992</v>
-      </c>
-      <c r="J22" s="15">
-        <v>288446964.44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="B23" s="9">
+        <v>397102289.44999993</v>
+      </c>
+      <c r="C23" s="9">
+        <v>304481630.21000004</v>
+      </c>
+      <c r="D23" s="9">
+        <v>303860272.91000009</v>
+      </c>
+      <c r="E23" s="9">
+        <v>327263577.34000009</v>
+      </c>
+      <c r="F23" s="9">
+        <v>308093929.25999981</v>
+      </c>
+      <c r="G23" s="9">
+        <v>328578155.30000055</v>
+      </c>
+      <c r="H23" s="9">
+        <v>301180027.39999998</v>
+      </c>
+      <c r="I23" s="9">
+        <v>295487989.23999983</v>
+      </c>
+      <c r="J23" s="11">
+        <v>288590883.53000003</v>
+      </c>
+      <c r="K23" s="9">
+        <v>283073691.2700001</v>
+      </c>
+      <c r="L23" s="9">
+        <v>279760460.91000015</v>
+      </c>
+      <c r="M23" s="9">
+        <v>308871510.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B24" s="9">
         <v>6678926.79</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C24" s="9">
         <v>7420409.9500000002</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>7963802.5300000003</v>
       </c>
-      <c r="E23" s="9">
-        <v>3551557.36</v>
-      </c>
-      <c r="F23" s="9">
-        <v>5508679.6699999999</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="E24" s="9">
+        <v>3519278.86</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5290064.7300000004</v>
+      </c>
+      <c r="G24" s="9">
         <v>7240664.6199999992</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H24" s="9">
         <v>3154084.3</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I24" s="9">
         <v>8290926.1200000001</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J24" s="11">
         <v>3146134.13</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="K24" s="9">
+        <v>6112754.0700000003</v>
+      </c>
+      <c r="L24" s="9">
+        <v>3220712.14</v>
+      </c>
+      <c r="M24" s="9">
+        <v>6611977.6000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B25" s="9">
         <v>104964021.73000003</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C25" s="9">
         <v>82248876.559999943</v>
       </c>
-      <c r="D24" s="9">
-        <v>97426673.529999912</v>
-      </c>
-      <c r="E24" s="9">
-        <v>75791101.430000037</v>
-      </c>
-      <c r="F24" s="9">
-        <v>75515957.530000031</v>
-      </c>
-      <c r="G24" s="9">
-        <v>80770291.140000045</v>
-      </c>
-      <c r="H24" s="9">
-        <v>93061099.639999986</v>
-      </c>
-      <c r="I24" s="9">
-        <v>124069207.58</v>
-      </c>
-      <c r="J24" s="15">
-        <v>127700721.96999991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="D25" s="9">
+        <v>97521455.339999914</v>
+      </c>
+      <c r="E25" s="9">
+        <v>75796000.460000023</v>
+      </c>
+      <c r="F25" s="9">
+        <v>75637695.970000014</v>
+      </c>
+      <c r="G25" s="9">
+        <v>80844644.980000049</v>
+      </c>
+      <c r="H25" s="9">
+        <v>93157556.159999996</v>
+      </c>
+      <c r="I25" s="9">
+        <v>124409381.32999997</v>
+      </c>
+      <c r="J25" s="11">
+        <v>127641755.13999985</v>
+      </c>
+      <c r="K25" s="9">
+        <v>135803543.59000006</v>
+      </c>
+      <c r="L25" s="9">
+        <v>129323026.49999981</v>
+      </c>
+      <c r="M25" s="9">
+        <v>128128798.98000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>11870850.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B27" s="9">
         <v>17150511.990000002</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C27" s="9">
         <v>6725635.6200000001</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D27" s="9">
         <v>8168195.46</v>
       </c>
-      <c r="E25" s="9">
-        <v>7747740.8900000006</v>
-      </c>
-      <c r="F25" s="9">
-        <v>27184426.949999999</v>
-      </c>
-      <c r="G25" s="9">
-        <v>26265637.990000002</v>
-      </c>
-      <c r="H25" s="9">
-        <v>21565396.329999998</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="E27" s="9">
+        <v>7933163.6300000008</v>
+      </c>
+      <c r="F27" s="9">
+        <v>33531710.550000001</v>
+      </c>
+      <c r="G27" s="9">
+        <v>32643665.250000004</v>
+      </c>
+      <c r="H27" s="9">
+        <v>24402236.32</v>
+      </c>
+      <c r="I27" s="9">
         <v>33124958.529999997</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J27" s="11">
         <v>17758177.960000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="K27" s="9">
+        <v>30822295.859999999</v>
+      </c>
+      <c r="L27" s="9">
+        <v>14205483.129999999</v>
+      </c>
+      <c r="M27" s="9">
+        <v>34255390.890000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B28" s="9">
         <v>19519928.449999999</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C28" s="9">
         <v>31809016.32</v>
       </c>
-      <c r="D26" s="9">
-        <v>50258298.530000001</v>
-      </c>
-      <c r="E26" s="9">
-        <v>52662963.879999995</v>
-      </c>
-      <c r="F26" s="9">
-        <v>37274558.329999998</v>
-      </c>
-      <c r="G26" s="9">
-        <v>33265498.859999999</v>
-      </c>
-      <c r="H26" s="9">
-        <v>71166574.390000001</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="D28" s="9">
+        <v>51238964.230000004</v>
+      </c>
+      <c r="E28" s="9">
+        <v>62791526.819999993</v>
+      </c>
+      <c r="F28" s="9">
+        <v>45096203.32</v>
+      </c>
+      <c r="G28" s="9">
+        <v>40560378.399999999</v>
+      </c>
+      <c r="H28" s="9">
+        <v>77317932.470000014</v>
+      </c>
+      <c r="I28" s="9">
         <v>60695069.269999996</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J28" s="11">
         <v>55744296.390000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="K28" s="9">
+        <v>79563103.959999993</v>
+      </c>
+      <c r="L28" s="9">
+        <v>38060244.600000001</v>
+      </c>
+      <c r="M28" s="9">
+        <v>63235814.360000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B29" s="9">
         <v>6917235.54</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C29" s="9">
         <v>13589866.610000001</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D29" s="9">
         <v>12003544.33</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E29" s="9">
         <v>4927467.9000000004</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F29" s="9">
         <v>4300147.49</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G29" s="9">
         <v>4828119.58</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H29" s="9">
         <v>5054341.0000000009</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I29" s="9">
         <v>7470862.9799999995</v>
       </c>
-      <c r="J27" s="15">
-        <v>5007176.6500000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="J29" s="11">
+        <v>5008257.01</v>
+      </c>
+      <c r="K29" s="9">
+        <v>7561558.1100000003</v>
+      </c>
+      <c r="L29" s="9">
+        <v>4904243.34</v>
+      </c>
+      <c r="M29" s="9">
+        <v>6078695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="9">
-        <v>78367835.890000001</v>
-      </c>
-      <c r="C28" s="9">
-        <v>60710214.29999999</v>
-      </c>
-      <c r="D28" s="9">
-        <v>61752286.199999996</v>
-      </c>
-      <c r="E28" s="9">
-        <v>79068569.319999993</v>
-      </c>
-      <c r="F28" s="9">
-        <v>38851559.43</v>
-      </c>
-      <c r="G28" s="9">
-        <v>108348074.21000001</v>
-      </c>
-      <c r="H28" s="9">
-        <v>77440460.87000002</v>
-      </c>
-      <c r="I28" s="9">
-        <v>61953175.369999997</v>
-      </c>
-      <c r="J28" s="15">
-        <v>51005310.18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="B30" s="9">
+        <v>78498223.559999987</v>
+      </c>
+      <c r="C30" s="9">
+        <v>60346310.049999997</v>
+      </c>
+      <c r="D30" s="9">
+        <v>61243585.389999986</v>
+      </c>
+      <c r="E30" s="9">
+        <v>77611499.179999992</v>
+      </c>
+      <c r="F30" s="9">
+        <v>38782041.589999996</v>
+      </c>
+      <c r="G30" s="9">
+        <v>109078247.07000001</v>
+      </c>
+      <c r="H30" s="9">
+        <v>80433290.810000017</v>
+      </c>
+      <c r="I30" s="9">
+        <v>62216228.369999997</v>
+      </c>
+      <c r="J30" s="11">
+        <v>51677732.339999996</v>
+      </c>
+      <c r="K30" s="9">
+        <v>81610684.430000007</v>
+      </c>
+      <c r="L30" s="9">
+        <v>70099471.440000013</v>
+      </c>
+      <c r="M30" s="9">
+        <v>56599333.68999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B31" s="9">
         <v>977172.9800000001</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C31" s="9">
         <v>1400843.86</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D31" s="9">
         <v>1217086.7399999998</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E31" s="9">
         <v>612894.9</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F31" s="9">
         <v>2068175.8599999999</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G31" s="9">
         <v>7228108.5799999991</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H31" s="9">
         <v>2899677.52</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I31" s="9">
         <v>2111039</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J31" s="11">
         <v>2412044.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="K31" s="9">
+        <v>2248551.5799999996</v>
+      </c>
+      <c r="L31" s="9">
+        <v>6280162.4800000004</v>
+      </c>
+      <c r="M31" s="9">
+        <v>3055598.5500000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="9">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="B32" s="9">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
         <v>73022.040000000008</v>
       </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="9">
-        <v>276656258.82999992</v>
-      </c>
-      <c r="C31" s="9">
-        <v>158506097.32999998</v>
-      </c>
-      <c r="D31" s="9">
-        <v>210551452.18999994</v>
-      </c>
-      <c r="E31" s="9">
-        <v>205711227.13999999</v>
-      </c>
-      <c r="F31" s="9">
-        <v>255232876.31</v>
-      </c>
-      <c r="G31" s="9">
-        <v>226403478.88999999</v>
-      </c>
-      <c r="H31" s="9">
-        <v>203996391.78000003</v>
-      </c>
-      <c r="I31" s="9">
-        <v>184227004.92000008</v>
-      </c>
-      <c r="J31" s="15">
-        <v>218737521.56000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="B33" s="9">
+        <v>276978845.31999993</v>
+      </c>
+      <c r="C33" s="9">
+        <v>158778394.73999998</v>
+      </c>
+      <c r="D33" s="9">
+        <v>210805317.57999995</v>
+      </c>
+      <c r="E33" s="9">
+        <v>208143364.84000003</v>
+      </c>
+      <c r="F33" s="9">
+        <v>256475240.01999995</v>
+      </c>
+      <c r="G33" s="9">
+        <v>226838983.26999998</v>
+      </c>
+      <c r="H33" s="9">
+        <v>204047003.11000004</v>
+      </c>
+      <c r="I33" s="9">
+        <v>184193712.10000008</v>
+      </c>
+      <c r="J33" s="11">
+        <v>219133485.74000004</v>
+      </c>
+      <c r="K33" s="9">
+        <v>202749301.11999997</v>
+      </c>
+      <c r="L33" s="9">
+        <v>241971366.19999999</v>
+      </c>
+      <c r="M33" s="9">
+        <v>302526255.56999987</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B34" s="9">
         <v>162724708.11000001</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C34" s="9">
         <v>141992587.94</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D34" s="9">
         <v>158483109.05000001</v>
       </c>
-      <c r="E32" s="9">
-        <v>197583845.49000001</v>
-      </c>
-      <c r="F32" s="9">
-        <v>76175030.370000005</v>
-      </c>
-      <c r="G32" s="9">
-        <v>276438239.67999995</v>
-      </c>
-      <c r="H32" s="9">
-        <v>144595593.73000002</v>
-      </c>
-      <c r="I32" s="9">
-        <v>146943877.36000001</v>
-      </c>
-      <c r="J32" s="15">
-        <v>205053779.32999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="E34" s="9">
+        <v>209383386.80000001</v>
+      </c>
+      <c r="F34" s="9">
+        <v>82856025.200000003</v>
+      </c>
+      <c r="G34" s="9">
+        <v>341733637.60000002</v>
+      </c>
+      <c r="H34" s="9">
+        <v>170687308.43000001</v>
+      </c>
+      <c r="I34" s="9">
+        <v>153174297.79000002</v>
+      </c>
+      <c r="J34" s="11">
+        <v>205264302.66999999</v>
+      </c>
+      <c r="K34" s="9">
+        <v>209639419.16</v>
+      </c>
+      <c r="L34" s="9">
+        <v>190059149.30000001</v>
+      </c>
+      <c r="M34" s="9">
+        <v>224178205.21000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B35" s="9">
         <v>948.91</v>
       </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="C35" s="9">
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B36" s="9">
         <v>105015.06</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C36" s="9">
         <v>81083.72</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D36" s="9">
         <v>180052.71</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E36" s="9">
         <v>13097.95</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F36" s="9">
         <v>44041.13</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G36" s="9">
         <v>84277.79</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H36" s="9">
         <v>137599.23000000001</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I36" s="9">
         <v>36951.93</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J36" s="11">
         <v>64772553.719999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="K36" s="9">
+        <v>32424.62</v>
+      </c>
+      <c r="L36" s="9">
+        <v>126568335.78999999</v>
+      </c>
+      <c r="M36" s="9">
+        <v>30538849.719999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B37" s="9">
         <v>92372260.810000002</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C37" s="9">
         <v>186719279.17000002</v>
       </c>
-      <c r="D35" s="9">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
         <v>117994765.45</v>
       </c>
-      <c r="F35" s="9">
-        <v>68052778.239999995</v>
-      </c>
-      <c r="G35" s="9">
-        <v>92885258.010000005</v>
-      </c>
-      <c r="H35" s="9">
-        <v>41820172.420000002</v>
-      </c>
-      <c r="I35" s="9">
-        <v>58960651.5</v>
-      </c>
-      <c r="J35" s="15">
-        <v>92775174.469999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="F37" s="9">
+        <v>76200986.930000007</v>
+      </c>
+      <c r="G37" s="9">
+        <v>111223695.84999999</v>
+      </c>
+      <c r="H37" s="9">
+        <v>47307193.600000001</v>
+      </c>
+      <c r="I37" s="9">
+        <v>61961313.029999994</v>
+      </c>
+      <c r="J37" s="11">
+        <v>95631473.789999992</v>
+      </c>
+      <c r="K37" s="9">
+        <v>92499952.370000005</v>
+      </c>
+      <c r="L37" s="9">
+        <v>88737244.25</v>
+      </c>
+      <c r="M37" s="9">
+        <v>125986896.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B38" s="9">
         <v>10962520.32</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C38" s="9">
         <v>11987560.129999999</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D38" s="9">
         <v>9941492.1799999997</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E38" s="9">
         <v>7844344.5799999982</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F38" s="9">
         <v>7368220.6899999995</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G38" s="9">
         <v>11825657.149999999</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H38" s="9">
         <v>15284322.799999999</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I38" s="9">
         <v>10852806.83</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J38" s="11">
         <v>8520096.8100000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="K38" s="9">
+        <v>7132316.1600000001</v>
+      </c>
+      <c r="L38" s="9">
+        <v>9014077.8899999987</v>
+      </c>
+      <c r="M38" s="9">
+        <v>12183060.07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B39" s="9">
         <v>642.19000000000005</v>
       </c>
-      <c r="C37" s="9">
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="C39" s="9">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>545000</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B40" s="9">
         <v>8666027.9499999974</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C40" s="9">
         <v>2478833.85</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D40" s="9">
         <v>5704607.4500000011</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E40" s="9">
         <v>3153558.2300000004</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F40" s="9">
         <v>102047.93</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G40" s="9">
         <v>2366997.2200000002</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H40" s="9">
         <v>965397.36</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I40" s="9">
         <v>1553085.6700000002</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J40" s="11">
         <v>15599298.77</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="K40" s="9">
+        <v>6578991.2599999988</v>
+      </c>
+      <c r="L40" s="9">
+        <v>4409394.99</v>
+      </c>
+      <c r="M40" s="9">
+        <v>5896851.8199999984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="9">
-        <v>405416999.39999998</v>
-      </c>
-      <c r="C39" s="9">
-        <v>137116002.88999999</v>
-      </c>
-      <c r="D39" s="9">
-        <v>216339113.74000001</v>
-      </c>
-      <c r="E39" s="9">
-        <v>93124713.120000005</v>
-      </c>
-      <c r="F39" s="9">
-        <v>176509395.09999999</v>
-      </c>
-      <c r="G39" s="9">
-        <v>243352427.92000002</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="B41" s="9">
+        <v>401411379.84999996</v>
+      </c>
+      <c r="C41" s="9">
+        <v>135314330.46000001</v>
+      </c>
+      <c r="D41" s="9">
+        <v>211203814.44</v>
+      </c>
+      <c r="E41" s="9">
+        <v>92596711.140000001</v>
+      </c>
+      <c r="F41" s="9">
+        <v>197159286.88</v>
+      </c>
+      <c r="G41" s="9">
+        <v>247742879.96000001</v>
+      </c>
+      <c r="H41" s="9">
         <v>251802819.43000001</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I41" s="9">
         <v>247429308.59999999</v>
       </c>
-      <c r="J39" s="15">
-        <v>279718088.93000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+      <c r="J41" s="11">
+        <v>279497586.86000001</v>
+      </c>
+      <c r="K41" s="9">
+        <v>264213214.80000001</v>
+      </c>
+      <c r="L41" s="9">
+        <v>20684010.149999999</v>
+      </c>
+      <c r="M41" s="9">
+        <v>205111235.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B42" s="9">
         <v>8465187.0800000001</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C42" s="9">
         <v>8513574.620000001</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D42" s="9">
         <v>7735024.7999999998</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E42" s="9">
         <v>5749243.0800000001</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F42" s="9">
         <v>6237144.3300000001</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G42" s="9">
         <v>10038060.42</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H42" s="9">
         <v>3838167.44</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I42" s="9">
         <v>8113656.8300000001</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J42" s="11">
         <v>4956242.88</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+      <c r="K42" s="9">
+        <v>6671240.8300000001</v>
+      </c>
+      <c r="L42" s="9">
+        <v>7224513.0599999996</v>
+      </c>
+      <c r="M42" s="9">
+        <v>8913979.5800000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B43" s="9">
         <v>6141.84</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C43" s="9">
         <v>2580550.0299999998</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D43" s="9">
         <v>9320.24</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E43" s="9">
         <v>21218.01</v>
       </c>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
         <v>6858</v>
       </c>
-      <c r="J41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>4159875.02</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B44" s="9">
         <v>44244783.379999988</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C44" s="9">
         <v>57543450.12000002</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D44" s="9">
         <v>42501769.460000001</v>
       </c>
-      <c r="E42" s="9">
-        <v>21774113.970000003</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="E44" s="9">
+        <v>21812561.060000002</v>
+      </c>
+      <c r="F44" s="9">
         <v>14636386.07</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G44" s="9">
         <v>14604025.919999996</v>
       </c>
-      <c r="H42" s="9">
-        <v>18475790.93</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="H44" s="9">
+        <v>18483278.93</v>
+      </c>
+      <c r="I44" s="9">
         <v>9130650.7599999998</v>
       </c>
-      <c r="J42" s="15">
-        <v>13098491.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="J44" s="11">
+        <v>13098774</v>
+      </c>
+      <c r="K44" s="9">
+        <v>30629919.699999992</v>
+      </c>
+      <c r="L44" s="9">
+        <v>24005656.829999998</v>
+      </c>
+      <c r="M44" s="9">
+        <v>35287037.299999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="9">
-        <v>842571231.77000022</v>
-      </c>
-      <c r="C43" s="9">
-        <v>460933155.31</v>
-      </c>
-      <c r="D43" s="9">
-        <v>932210240.15999985</v>
-      </c>
-      <c r="E43" s="9">
-        <v>806942834.71000004</v>
-      </c>
-      <c r="F43" s="9">
-        <v>713003735.0999999</v>
-      </c>
-      <c r="G43" s="9">
-        <v>986291927.39999986</v>
-      </c>
-      <c r="H43" s="9">
-        <v>1089462152.4800003</v>
-      </c>
-      <c r="I43" s="9">
-        <v>851321557.58000004</v>
-      </c>
-      <c r="J43" s="15">
-        <v>722527344.03000033</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="B45" s="9">
+        <v>842567882.55000019</v>
+      </c>
+      <c r="C45" s="9">
+        <v>460884290.71999997</v>
+      </c>
+      <c r="D45" s="9">
+        <v>923591408.25999975</v>
+      </c>
+      <c r="E45" s="9">
+        <v>788299467.0999999</v>
+      </c>
+      <c r="F45" s="9">
+        <v>699396430.37000012</v>
+      </c>
+      <c r="G45" s="9">
+        <v>988329366.41000021</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1111707491.2200003</v>
+      </c>
+      <c r="I45" s="9">
+        <v>857567352.62000024</v>
+      </c>
+      <c r="J45" s="11">
+        <v>728905135.91999972</v>
+      </c>
+      <c r="K45" s="9">
+        <v>1136929625.8199995</v>
+      </c>
+      <c r="L45" s="9">
+        <v>1095455808.5599992</v>
+      </c>
+      <c r="M45" s="9">
+        <v>1023287665.6000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B46" s="9">
         <v>255053.16</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C46" s="9">
         <v>115476.8</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D46" s="9">
         <v>7036960.1699999999</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E46" s="9">
         <v>344293.85</v>
       </c>
-      <c r="F44" s="9">
-        <v>3197854.97</v>
-      </c>
-      <c r="G44" s="9">
-        <v>6735714.3599999994</v>
-      </c>
-      <c r="H44" s="9">
+      <c r="F46" s="9">
+        <v>3193584.92</v>
+      </c>
+      <c r="G46" s="9">
+        <v>6740283.4799999995</v>
+      </c>
+      <c r="H46" s="9">
         <v>3252645.1</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I46" s="9">
         <v>3625241.2600000002</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J46" s="11">
         <v>3510506.55</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="K46" s="9">
+        <v>9128651.2399999984</v>
+      </c>
+      <c r="L46" s="9">
+        <v>146667.82</v>
+      </c>
+      <c r="M46" s="9">
+        <v>13640915.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="9">
-        <v>0</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="B47" s="9">
+        <v>0</v>
+      </c>
+      <c r="C47" s="9">
         <v>250000</v>
       </c>
-      <c r="D45" s="9">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B48" s="9">
         <v>4493925.8900000006</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C48" s="9">
         <v>4029705.87</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D48" s="9">
         <v>4059111.3499999996</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E48" s="9">
         <v>1206446.75</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F48" s="9">
         <v>282490.65000000002</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G48" s="9">
         <v>630595.74</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H48" s="9">
         <v>454185.42</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I48" s="9">
         <v>362247.24</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J48" s="11">
         <v>412878.23</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="K48" s="9">
+        <v>619089.11</v>
+      </c>
+      <c r="L48" s="9">
+        <v>1631250.8400000003</v>
+      </c>
+      <c r="M48" s="9">
+        <v>1511649.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B49" s="9">
         <v>5598573.2300000004</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C49" s="9">
         <v>76431.430000000008</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D49" s="9">
         <v>5979557.3900000006</v>
       </c>
-      <c r="E47" s="9">
-        <v>1838503.92</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="E49" s="9">
+        <v>2254920.61</v>
+      </c>
+      <c r="F49" s="9">
         <v>107270.75</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G49" s="9">
         <v>355684.14</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H49" s="9">
         <v>123589.59</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I49" s="9">
         <v>89484.25</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J49" s="11">
         <v>74303.31</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="K49" s="9">
+        <v>107057.54999999999</v>
+      </c>
+      <c r="L49" s="9">
+        <v>519171.18</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="9">
-        <v>1313968310.3300002</v>
-      </c>
-      <c r="C48" s="9">
-        <v>784472500.23999941</v>
-      </c>
-      <c r="D48" s="9">
-        <v>994699351.24000037</v>
-      </c>
-      <c r="E48" s="9">
-        <v>934624267.45999777</v>
-      </c>
-      <c r="F48" s="9">
-        <v>1040545045.879999</v>
-      </c>
-      <c r="G48" s="9">
-        <v>927878061.43999839</v>
-      </c>
-      <c r="H48" s="9">
-        <v>1041496347.9899997</v>
-      </c>
-      <c r="I48" s="9">
-        <v>1036061975.0000021</v>
-      </c>
-      <c r="J48" s="15">
-        <v>1053375045.1299999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="B50" s="9">
+        <v>1317897757.0000002</v>
+      </c>
+      <c r="C50" s="9">
+        <v>781449399.37999916</v>
+      </c>
+      <c r="D50" s="9">
+        <v>992667697.51000023</v>
+      </c>
+      <c r="E50" s="9">
+        <v>937713474.18999779</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1051060682.1899986</v>
+      </c>
+      <c r="G50" s="9">
+        <v>952525096.60999858</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1067028489.5700001</v>
+      </c>
+      <c r="I50" s="9">
+        <v>1049949595.450002</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1017760692.4700001</v>
+      </c>
+      <c r="K50" s="9">
+        <v>973374984.8300004</v>
+      </c>
+      <c r="L50" s="9">
+        <v>957358478.15999758</v>
+      </c>
+      <c r="M50" s="9">
+        <v>980482446.37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="9">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>12006.4</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B52" s="9">
         <v>2267.1799999999998</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C52" s="9">
         <v>69008.94</v>
       </c>
-      <c r="D49" s="9">
-        <v>0</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="9">
         <v>121786</v>
       </c>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="F52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
+        <v>326.37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="9">
-        <v>221078952.18000001</v>
-      </c>
-      <c r="C50" s="9">
-        <v>192436283.74000007</v>
-      </c>
-      <c r="D50" s="9">
-        <v>236233791.1399999</v>
-      </c>
-      <c r="E50" s="9">
-        <v>250908700.57999989</v>
-      </c>
-      <c r="F50" s="9">
-        <v>204008013.64000005</v>
-      </c>
-      <c r="G50" s="9">
-        <v>221852264.44999999</v>
-      </c>
-      <c r="H50" s="9">
-        <v>243207867.20000005</v>
-      </c>
-      <c r="I50" s="9">
-        <v>218453152.02000019</v>
-      </c>
-      <c r="J50" s="15">
-        <v>178571253.7700001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="B53" s="9">
+        <v>221053936.31999999</v>
+      </c>
+      <c r="C53" s="9">
+        <v>192188916.22000009</v>
+      </c>
+      <c r="D53" s="9">
+        <v>236391071.76999989</v>
+      </c>
+      <c r="E53" s="9">
+        <v>251132680.28999999</v>
+      </c>
+      <c r="F53" s="9">
+        <v>204618974.30000004</v>
+      </c>
+      <c r="G53" s="9">
+        <v>222536980.30999994</v>
+      </c>
+      <c r="H53" s="9">
+        <v>243520388.11000007</v>
+      </c>
+      <c r="I53" s="9">
+        <v>218962918.17000023</v>
+      </c>
+      <c r="J53" s="11">
+        <v>178772242.5200001</v>
+      </c>
+      <c r="K53" s="9">
+        <v>218426770.66</v>
+      </c>
+      <c r="L53" s="9">
+        <v>213409374.00999987</v>
+      </c>
+      <c r="M53" s="9">
+        <v>191998703.07000017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B54" s="9">
         <v>8609960.2400000002</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C54" s="9">
         <v>10267650.73</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D54" s="9">
         <v>3803754.08</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E54" s="9">
         <v>11501289.57</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F54" s="9">
         <v>18208787.41</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G54" s="9">
         <v>3543558.69</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H54" s="9">
         <v>4997127.83</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I54" s="9">
         <v>12361138.359999999</v>
       </c>
-      <c r="J51" s="15">
-        <v>865355.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="J54" s="11">
+        <v>862129.58000000007</v>
+      </c>
+      <c r="K54" s="9">
+        <v>6518177.5600000005</v>
+      </c>
+      <c r="L54" s="9">
+        <v>5542392.04</v>
+      </c>
+      <c r="M54" s="9">
+        <v>9413597.8800000008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B55" s="9">
         <v>26144749.650000002</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C55" s="9">
         <v>37902783.559999995</v>
       </c>
-      <c r="D52" s="9">
-        <v>29204269.690000005</v>
-      </c>
-      <c r="E52" s="9">
-        <v>67545174.950000018</v>
-      </c>
-      <c r="F52" s="9">
-        <v>53687156.139999993</v>
-      </c>
-      <c r="G52" s="9">
-        <v>55009628.31000001</v>
-      </c>
-      <c r="H52" s="9">
+      <c r="D55" s="9">
+        <v>28749070.640000008</v>
+      </c>
+      <c r="E55" s="9">
+        <v>66891969.520000003</v>
+      </c>
+      <c r="F55" s="9">
+        <v>53353536.169999994</v>
+      </c>
+      <c r="G55" s="9">
+        <v>52587880.570000015</v>
+      </c>
+      <c r="H55" s="9">
         <v>31786794.799999993</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I55" s="9">
         <v>34901200.25</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J55" s="11">
         <v>23978228.099999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="K55" s="9">
+        <v>70006827.140000001</v>
+      </c>
+      <c r="L55" s="9">
+        <v>64555905.820000008</v>
+      </c>
+      <c r="M55" s="9">
+        <v>30853702.699999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="9">
-        <v>989200312.90999961</v>
-      </c>
-      <c r="C53" s="9">
-        <v>609092599.49000049</v>
-      </c>
-      <c r="D53" s="9">
-        <v>553225840.43000007</v>
-      </c>
-      <c r="E53" s="9">
-        <v>537066335.19999993</v>
-      </c>
-      <c r="F53" s="9">
-        <v>415875655.0600003</v>
-      </c>
-      <c r="G53" s="9">
-        <v>381610508.74000055</v>
-      </c>
-      <c r="H53" s="9">
-        <v>451548558.1099999</v>
-      </c>
-      <c r="I53" s="9">
-        <v>367732870.06000018</v>
-      </c>
-      <c r="J53" s="15">
-        <v>463251266.67999971</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="B56" s="13">
+        <v>989326476.49999952</v>
+      </c>
+      <c r="C56" s="13">
+        <v>609837631.43000042</v>
+      </c>
+      <c r="D56" s="13">
+        <v>562970459.34000015</v>
+      </c>
+      <c r="E56" s="13">
+        <v>545996032.05000007</v>
+      </c>
+      <c r="F56" s="13">
+        <v>426743349.20000046</v>
+      </c>
+      <c r="G56" s="13">
+        <v>396744559.80000055</v>
+      </c>
+      <c r="H56" s="13">
+        <v>467046096.17999959</v>
+      </c>
+      <c r="I56" s="13">
+        <v>381056484.01999992</v>
+      </c>
+      <c r="J56" s="14">
+        <v>482719546.18999964</v>
+      </c>
+      <c r="K56" s="9">
+        <v>499123393.30999988</v>
+      </c>
+      <c r="L56" s="9">
+        <v>481522872.19000006</v>
+      </c>
+      <c r="M56" s="9">
+        <v>765602581.19999933</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B57" s="9">
         <v>192942562.22999999</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C57" s="9">
         <v>98628369.519999996</v>
       </c>
-      <c r="D54" s="9">
-        <v>147591229.38</v>
-      </c>
-      <c r="E54" s="9">
-        <v>285996882.01999998</v>
-      </c>
-      <c r="F54" s="9">
-        <v>147403826.11000001</v>
-      </c>
-      <c r="G54" s="9">
-        <v>108795753.37</v>
-      </c>
-      <c r="H54" s="9">
-        <v>178858858.07999998</v>
-      </c>
-      <c r="I54" s="9">
-        <v>152880583.74999997</v>
-      </c>
-      <c r="J54" s="15">
+      <c r="D57" s="9">
+        <v>149468897.92999998</v>
+      </c>
+      <c r="E57" s="9">
+        <v>293260664.18000001</v>
+      </c>
+      <c r="F57" s="9">
+        <v>176442901.94999999</v>
+      </c>
+      <c r="G57" s="9">
+        <v>124058098.97</v>
+      </c>
+      <c r="H57" s="9">
+        <v>195368178.44999999</v>
+      </c>
+      <c r="I57" s="9">
+        <v>154358489.08999997</v>
+      </c>
+      <c r="J57" s="11">
         <v>142165432.97</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+      <c r="K57" s="9">
+        <v>287493323.56999999</v>
+      </c>
+      <c r="L57" s="9">
+        <v>271373119.53000003</v>
+      </c>
+      <c r="M57" s="9">
+        <v>309896096.76999992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="9">
-        <v>0</v>
-      </c>
-      <c r="C55" s="9">
+      <c r="B58" s="9">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9">
         <v>44156</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D58" s="9">
         <v>17282</v>
       </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="9">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B59" s="9">
         <v>78469763.920000046</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C59" s="9">
         <v>57173383.800000019</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D59" s="9">
         <v>44820081.789999992</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E59" s="9">
         <v>76176876.37999998</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F59" s="9">
         <v>39966980.12999998</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G59" s="9">
         <v>38371077.929999985</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H59" s="9">
         <v>36199118.089999996</v>
       </c>
-      <c r="I56" s="20">
-        <v>34660146.779999994</v>
-      </c>
-      <c r="J56" s="21">
+      <c r="I59" s="9">
+        <v>34655444.749999993</v>
+      </c>
+      <c r="J59" s="11">
         <v>29831570.23</v>
       </c>
+      <c r="K59" s="13">
+        <v>29395905.900000002</v>
+      </c>
+      <c r="L59" s="13">
+        <v>40739299.309999987</v>
+      </c>
+      <c r="M59" s="13">
+        <v>87689587.14000003</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
